--- a/Report/Misc/Test Output/Plane Test/Graphs.xlsx
+++ b/Report/Misc/Test Output/Plane Test/Graphs.xlsx
@@ -445,7 +445,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation X Over Time</a:t>
+              <a:t>Rotation X Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -490,37 +490,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.08665838311111</c:v>
+                  <c:v>0.345894106248759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.87994508992692</c:v>
+                  <c:v>0.598405107606414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.79164996887192</c:v>
+                  <c:v>0.888609783856602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.14283866784144</c:v>
+                  <c:v>1.00039661865463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.71519491438996</c:v>
+                  <c:v>0.864273384166276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.75788071584491</c:v>
+                  <c:v>0.559550810585274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.986945013850113</c:v>
+                  <c:v>0.314154355028289</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.736400444640665</c:v>
+                  <c:v>0.234403541719263</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.595607561473949</c:v>
+                  <c:v>0.189587775102978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.527389486394199</c:v>
+                  <c:v>0.167873287388665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.861147179815976</c:v>
+                  <c:v>0.274111660794716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,11 +535,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="39152706"/>
-        <c:axId val="32871139"/>
+        <c:axId val="68244219"/>
+        <c:axId val="71167699"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39152706"/>
+        <c:axId val="68244219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32871139"/>
+        <c:crossAx val="71167699"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32871139"/>
+        <c:axId val="71167699"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,7 +620,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39152706"/>
+        <c:crossAx val="68244219"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -667,7 +667,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation Y Over Time</a:t>
+              <a:t>Rotation Y Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -712,37 +712,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.08665654164712</c:v>
+                  <c:v>0.345893520092565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.710765506215</c:v>
+                  <c:v>0.544553573570452</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.15593101139204</c:v>
+                  <c:v>0.686254154856305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.23216574778248</c:v>
+                  <c:v>0.710520425119997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.11670593778852</c:v>
+                  <c:v>0.673768426142019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.00530738060301</c:v>
+                  <c:v>0.63830916408326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.04074436761581</c:v>
+                  <c:v>0.649589107386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.22261325086346</c:v>
+                  <c:v>0.707479770912935</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.24379669291538</c:v>
+                  <c:v>0.714222669941462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.91206826861809</c:v>
+                  <c:v>0.608630232959461</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.32906651457948</c:v>
+                  <c:v>0.423055010986481</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,11 +757,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="15967218"/>
-        <c:axId val="89437548"/>
+        <c:axId val="58384524"/>
+        <c:axId val="44798858"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15967218"/>
+        <c:axId val="58384524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,14 +798,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89437548"/>
+        <c:crossAx val="44798858"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89437548"/>
+        <c:axId val="44798858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15967218"/>
+        <c:crossAx val="58384524"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -889,7 +889,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Rotation Z Over Time</a:t>
+              <a:t>Rotation Z Over Time (radians in terms of pi)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -934,37 +934,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.08080518496377</c:v>
+                  <c:v>0.344030975412667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.81966268835437</c:v>
+                  <c:v>0.579216623222969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.80659557836439</c:v>
+                  <c:v>0.893367119113098</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.16061856931141</c:v>
+                  <c:v>1.00605613706789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.70723187940927</c:v>
+                  <c:v>0.861738671407893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.75761601207321</c:v>
+                  <c:v>0.559466552757831</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.985103614328065</c:v>
+                  <c:v>0.313568219356007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.743626679242652</c:v>
+                  <c:v>0.236703723632959</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.598468306912388</c:v>
+                  <c:v>0.190498378657888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.524288848418513</c:v>
+                  <c:v>0.166886323667527</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.05659345904314</c:v>
+                  <c:v>0.336324143690559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,11 +979,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="48759087"/>
-        <c:axId val="28019039"/>
+        <c:axId val="36859196"/>
+        <c:axId val="67395487"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48759087"/>
+        <c:axId val="36859196"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,14 +1020,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28019039"/>
+        <c:crossAx val="67395487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="28019039"/>
+        <c:axId val="67395487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48759087"/>
+        <c:crossAx val="36859196"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1111,7 +1111,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation X Over Time</a:t>
+              <a:t>Translation X Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1201,11 +1201,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="88152561"/>
-        <c:axId val="93084915"/>
+        <c:axId val="88601951"/>
+        <c:axId val="87384398"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88152561"/>
+        <c:axId val="88601951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1242,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93084915"/>
+        <c:crossAx val="87384398"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93084915"/>
+        <c:axId val="87384398"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,7 +1277,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88152561"/>
+        <c:crossAx val="88601951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1324,7 +1324,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation Y Over Time</a:t>
+              <a:t>Translation Y Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1414,11 +1414,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="61221538"/>
-        <c:axId val="70536372"/>
+        <c:axId val="32299605"/>
+        <c:axId val="34203707"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61221538"/>
+        <c:axId val="32299605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,14 +1455,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70536372"/>
+        <c:crossAx val="34203707"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70536372"/>
+        <c:axId val="34203707"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1499,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61221538"/>
+        <c:crossAx val="32299605"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1546,7 +1546,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Translation Z Over Time</a:t>
+              <a:t>Translation Z Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1636,11 +1636,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="56880674"/>
-        <c:axId val="87618562"/>
+        <c:axId val="4208368"/>
+        <c:axId val="21814025"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56880674"/>
+        <c:axId val="4208368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,14 +1677,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87618562"/>
+        <c:crossAx val="21814025"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87618562"/>
+        <c:axId val="21814025"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1721,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56880674"/>
+        <c:crossAx val="4208368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1858,11 +1858,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="7914781"/>
-        <c:axId val="39738956"/>
+        <c:axId val="51156608"/>
+        <c:axId val="84005607"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="7914781"/>
+        <c:axId val="51156608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,14 +1899,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39738956"/>
+        <c:crossAx val="84005607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39738956"/>
+        <c:axId val="84005607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7914781"/>
+        <c:crossAx val="51156608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2080,11 +2080,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="43048385"/>
-        <c:axId val="58213473"/>
+        <c:axId val="84617561"/>
+        <c:axId val="52080423"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43048385"/>
+        <c:axId val="84617561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,14 +2121,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58213473"/>
+        <c:crossAx val="52080423"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58213473"/>
+        <c:axId val="52080423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2165,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43048385"/>
+        <c:crossAx val="84617561"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2302,11 +2302,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="2364782"/>
-        <c:axId val="68582447"/>
+        <c:axId val="33009950"/>
+        <c:axId val="12714182"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2364782"/>
+        <c:axId val="33009950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,14 +2343,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68582447"/>
+        <c:crossAx val="12714182"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68582447"/>
+        <c:axId val="12714182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2364782"/>
+        <c:crossAx val="33009950"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2434,7 +2434,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Error Over Time</a:t>
+              <a:t>Error Over Time (mm)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2524,11 +2524,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="95903904"/>
-        <c:axId val="31044495"/>
+        <c:axId val="69915673"/>
+        <c:axId val="91464781"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95903904"/>
+        <c:axId val="69915673"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,14 +2565,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31044495"/>
+        <c:crossAx val="91464781"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31044495"/>
+        <c:axId val="91464781"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +2609,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95903904"/>
+        <c:crossAx val="69915673"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2670,16 +2670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>809640</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:colOff>62640</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2687,7 +2687,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28282680" y="3900960"/>
+        <a:off x="28272600" y="4073040"/>
         <a:ext cx="5755320" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2701,15 +2701,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>779400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:colOff>808920</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>42120</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:colOff>71640</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2717,7 +2717,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="28242360" y="7305840"/>
+        <a:off x="28271880" y="7659360"/>
         <a:ext cx="5765040" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2948,8 +2948,8 @@
   </sheetPr>
   <dimension ref="B2:W57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF45" activeCellId="0" sqref="AF45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2:W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3020,39 +3020,39 @@
         <v>-1.513382</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">COS(G5) - SIN(H5) + SIN(G6) + COS(H6)</f>
-        <v>1.08665838311111</v>
+        <f aca="false"> (COS(G5) - SIN(H5) + SIN(G6) + COS(H6)) / PI()</f>
+        <v>0.345894106248759</v>
       </c>
       <c r="L4" s="0" t="n">
-        <f aca="false">COS(F4) + SIN(H4) - SIN(F6) + COS(H6)</f>
-        <v>1.08665654164712</v>
+        <f aca="false"> (COS(F4) + SIN(H4) - SIN(F6) + COS(H6)) / PI()</f>
+        <v>0.345893520092565</v>
       </c>
       <c r="M4" s="0" t="n">
-        <f aca="false">COS(F4) - SIN(G4) + SIN(F5) + COS(G5)</f>
-        <v>1.08080518496377</v>
+        <f aca="false"> (COS(F4) - SIN(G4) + SIN(F5) + COS(G5)) / PI()</f>
+        <v>0.344030975412667</v>
       </c>
       <c r="O4" s="0" t="n">
-        <f aca="false">I4</f>
+        <f aca="false"> I4</f>
         <v>-1.513382</v>
       </c>
       <c r="P4" s="0" t="n">
-        <f aca="false">I5</f>
+        <f aca="false"> I5</f>
         <v>1.537392</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <f aca="false">I6</f>
+        <f aca="false"> I6</f>
         <v>0.489777</v>
       </c>
       <c r="S4" s="0" t="n">
-        <f aca="false">F4</f>
+        <f aca="false"> F4</f>
         <v>0.999996</v>
       </c>
       <c r="T4" s="0" t="n">
-        <f aca="false">G5</f>
+        <f aca="false"> G5</f>
         <v>0.999995</v>
       </c>
       <c r="U4" s="0" t="n">
-        <f aca="false">H6</f>
+        <f aca="false"> H6</f>
         <v>0.999991</v>
       </c>
       <c r="W4" s="0" t="n">
@@ -3121,39 +3121,39 @@
         <v>41.749844</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">COS(G10) - SIN(H10) + SIN(G11) + COS(H11)</f>
-        <v>1.87994508992692</v>
+        <f aca="false"> (COS(G10) - SIN(H10) + SIN(G11) + COS(H11)) / PI()</f>
+        <v>0.598405107606414</v>
       </c>
       <c r="L9" s="0" t="n">
-        <f aca="false">COS(F9) + SIN(H9) - SIN(F11) + COS(H11)</f>
-        <v>1.710765506215</v>
+        <f aca="false"> (COS(F9) + SIN(H9) - SIN(F11) + COS(H11)) / PI()</f>
+        <v>0.544553573570452</v>
       </c>
       <c r="M9" s="0" t="n">
-        <f aca="false">COS(F9) - SIN(G9) + SIN(F10) + COS(G10)</f>
-        <v>1.81966268835437</v>
+        <f aca="false"> (COS(F9) - SIN(G9) + SIN(F10) + COS(G10)) / PI()</f>
+        <v>0.579216623222969</v>
       </c>
       <c r="O9" s="0" t="n">
-        <f aca="false">I9</f>
+        <f aca="false"> I9</f>
         <v>41.749844</v>
       </c>
       <c r="P9" s="0" t="n">
-        <f aca="false">I10</f>
+        <f aca="false"> I10</f>
         <v>50.63588</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <f aca="false">I11</f>
+        <f aca="false"> I11</f>
         <v>55.470463</v>
       </c>
       <c r="S9" s="0" t="n">
-        <f aca="false">F9</f>
+        <f aca="false"> F9</f>
         <v>0.919186</v>
       </c>
       <c r="T9" s="0" t="n">
-        <f aca="false">G10</f>
+        <f aca="false"> G10</f>
         <v>0.895034</v>
       </c>
       <c r="U9" s="0" t="n">
-        <f aca="false">H11</f>
+        <f aca="false"> H11</f>
         <v>0.909877</v>
       </c>
       <c r="W9" s="0" t="n">
@@ -3222,39 +3222,39 @@
         <v>69.07653</v>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">COS(G15) - SIN(H15) + SIN(G16) + COS(H16)</f>
-        <v>2.79164996887192</v>
+        <f aca="false"> (COS(G15) - SIN(H15) + SIN(G16) + COS(H16)) / PI()</f>
+        <v>0.888609783856602</v>
       </c>
       <c r="L14" s="0" t="n">
-        <f aca="false">COS(F14) + SIN(H14) - SIN(F16) + COS(H16)</f>
-        <v>2.15593101139204</v>
+        <f aca="false"> (COS(F14) + SIN(H14) - SIN(F16) + COS(H16)) / PI()</f>
+        <v>0.686254154856305</v>
       </c>
       <c r="M14" s="0" t="n">
-        <f aca="false">COS(F14) - SIN(G14) + SIN(F15) + COS(G15)</f>
-        <v>2.80659557836439</v>
+        <f aca="false"> (COS(F14) - SIN(G14) + SIN(F15) + COS(G15)) / PI()</f>
+        <v>0.893367119113098</v>
       </c>
       <c r="O14" s="0" t="n">
-        <f aca="false">I14</f>
+        <f aca="false"> I14</f>
         <v>69.07653</v>
       </c>
       <c r="P14" s="0" t="n">
-        <f aca="false">I15</f>
+        <f aca="false"> I15</f>
         <v>74.29509</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <f aca="false">I16</f>
+        <f aca="false"> I16</f>
         <v>136.287842</v>
       </c>
       <c r="S14" s="0" t="n">
-        <f aca="false">F14</f>
+        <f aca="false"> F14</f>
         <v>0.668714</v>
       </c>
       <c r="T14" s="0" t="n">
-        <f aca="false">G15</f>
+        <f aca="false"> G15</f>
         <v>0.479704</v>
       </c>
       <c r="U14" s="0" t="n">
-        <f aca="false">H16</f>
+        <f aca="false"> H16</f>
         <v>0.674631</v>
       </c>
       <c r="W14" s="0" t="n">
@@ -3323,39 +3323,39 @@
         <v>95.081749</v>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">COS(G20) - SIN(H20) + SIN(G21) + COS(H21)</f>
-        <v>3.14283866784144</v>
+        <f aca="false"> (COS(G20) - SIN(H20) + SIN(G21) + COS(H21)) / PI()</f>
+        <v>1.00039661865463</v>
       </c>
       <c r="L19" s="0" t="n">
-        <f aca="false">COS(F19) + SIN(H19) - SIN(F21) + COS(H21)</f>
-        <v>2.23216574778248</v>
+        <f aca="false"> (COS(F19) + SIN(H19) - SIN(F21) + COS(H21)) / PI()</f>
+        <v>0.710520425119997</v>
       </c>
       <c r="M19" s="0" t="n">
-        <f aca="false">COS(F19) - SIN(G19) + SIN(F20) + COS(G20)</f>
-        <v>3.16061856931141</v>
+        <f aca="false"> (COS(F19) - SIN(G19) + SIN(F20) + COS(G20)) / PI()</f>
+        <v>1.00605613706789</v>
       </c>
       <c r="O19" s="0" t="n">
-        <f aca="false">I19</f>
+        <f aca="false"> I19</f>
         <v>95.081749</v>
       </c>
       <c r="P19" s="0" t="n">
-        <f aca="false">I20</f>
+        <f aca="false"> I20</f>
         <v>36.048256</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <f aca="false">I21</f>
+        <f aca="false"> I21</f>
         <v>230.476013</v>
       </c>
       <c r="S19" s="0" t="n">
-        <f aca="false">F19</f>
+        <f aca="false"> F19</f>
         <v>0.363887</v>
       </c>
       <c r="T19" s="0" t="n">
-        <f aca="false">G20</f>
+        <f aca="false"> G20</f>
         <v>-0.137917</v>
       </c>
       <c r="U19" s="0" t="n">
-        <f aca="false">H21</f>
+        <f aca="false"> H21</f>
         <v>0.377551</v>
       </c>
       <c r="W19" s="0" t="n">
@@ -3424,39 +3424,39 @@
         <v>141.384583</v>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">COS(G25) - SIN(H25) + SIN(G26) + COS(H26)</f>
-        <v>2.71519491438996</v>
+        <f aca="false"> (COS(G25) - SIN(H25) + SIN(G26) + COS(H26)) / PI()</f>
+        <v>0.864273384166276</v>
       </c>
       <c r="L24" s="0" t="n">
-        <f aca="false">COS(F24) + SIN(H24) - SIN(F26) + COS(H26)</f>
-        <v>2.11670593778852</v>
+        <f aca="false"> (COS(F24) + SIN(H24) - SIN(F26) + COS(H26)) / PI()</f>
+        <v>0.673768426142019</v>
       </c>
       <c r="M24" s="0" t="n">
-        <f aca="false">COS(F24) - SIN(G24) + SIN(F25) + COS(G25)</f>
-        <v>2.70723187940927</v>
+        <f aca="false"> (COS(F24) - SIN(G24) + SIN(F25) + COS(G25)) / PI()</f>
+        <v>0.861738671407893</v>
       </c>
       <c r="O24" s="0" t="n">
-        <f aca="false">I24</f>
+        <f aca="false"> I24</f>
         <v>141.384583</v>
       </c>
       <c r="P24" s="0" t="n">
-        <f aca="false">I25</f>
+        <f aca="false"> I25</f>
         <v>-69.30896</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <f aca="false">I26</f>
+        <f aca="false"> I26</f>
         <v>302.602325</v>
       </c>
       <c r="S24" s="0" t="n">
-        <f aca="false">F24</f>
+        <f aca="false"> F24</f>
         <v>0.135809</v>
       </c>
       <c r="T24" s="0" t="n">
-        <f aca="false">G25</f>
+        <f aca="false"> G25</f>
         <v>-0.672879</v>
       </c>
       <c r="U24" s="0" t="n">
-        <f aca="false">H26</f>
+        <f aca="false"> H26</f>
         <v>0.123795</v>
       </c>
       <c r="W24" s="0" t="n">
@@ -3525,39 +3525,39 @@
         <v>227.135605</v>
       </c>
       <c r="K29" s="0" t="n">
-        <f aca="false">COS(G30) - SIN(H30) + SIN(G31) + COS(H31)</f>
-        <v>1.75788071584491</v>
+        <f aca="false"> (COS(G30) - SIN(H30) + SIN(G31) + COS(H31)) / PI()</f>
+        <v>0.559550810585274</v>
       </c>
       <c r="L29" s="0" t="n">
-        <f aca="false">COS(F29) + SIN(H29) - SIN(F31) + COS(H31)</f>
-        <v>2.00530738060301</v>
+        <f aca="false"> (COS(F29) + SIN(H29) - SIN(F31) + COS(H31)) / PI()</f>
+        <v>0.63830916408326</v>
       </c>
       <c r="M29" s="0" t="n">
-        <f aca="false">COS(F29) - SIN(G29) + SIN(F30) + COS(G30)</f>
-        <v>1.75761601207321</v>
+        <f aca="false"> (COS(F29) - SIN(G29) + SIN(F30) + COS(G30)) / PI()</f>
+        <v>0.559466552757831</v>
       </c>
       <c r="O29" s="0" t="n">
-        <f aca="false">I29</f>
+        <f aca="false"> I29</f>
         <v>227.135605</v>
       </c>
       <c r="P29" s="0" t="n">
-        <f aca="false">I30</f>
+        <f aca="false"> I30</f>
         <v>-225.870193</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <f aca="false">I31</f>
+        <f aca="false"> I31</f>
         <v>279.824646</v>
       </c>
       <c r="S29" s="0" t="n">
-        <f aca="false">F29</f>
+        <f aca="false"> F29</f>
         <v>0.005362</v>
       </c>
       <c r="T29" s="0" t="n">
-        <f aca="false">G30</f>
+        <f aca="false"> G30</f>
         <v>-0.987491</v>
       </c>
       <c r="U29" s="0" t="n">
-        <f aca="false">H31</f>
+        <f aca="false"> H31</f>
         <v>0.00329</v>
       </c>
       <c r="W29" s="0" t="n">
@@ -3626,39 +3626,39 @@
         <v>365.916321</v>
       </c>
       <c r="K34" s="0" t="n">
-        <f aca="false">COS(G35) - SIN(H35) + SIN(G36) + COS(H36)</f>
-        <v>0.986945013850113</v>
+        <f aca="false"> (COS(G35) - SIN(H35) + SIN(G36) + COS(H36)) / PI()</f>
+        <v>0.314154355028289</v>
       </c>
       <c r="L34" s="0" t="n">
-        <f aca="false">COS(F34) + SIN(H34) - SIN(F36) + COS(H36)</f>
-        <v>2.04074436761581</v>
+        <f aca="false"> (COS(F34) + SIN(H34) - SIN(F36) + COS(H36)) / PI()</f>
+        <v>0.649589107386</v>
       </c>
       <c r="M34" s="0" t="n">
-        <f aca="false">COS(F34) - SIN(G34) + SIN(F35) + COS(G35)</f>
-        <v>0.985103614328065</v>
+        <f aca="false"> (COS(F34) - SIN(G34) + SIN(F35) + COS(G35)) / PI()</f>
+        <v>0.313568219356007</v>
       </c>
       <c r="O34" s="0" t="n">
-        <f aca="false">I34</f>
+        <f aca="false"> I34</f>
         <v>365.916321</v>
       </c>
       <c r="P34" s="0" t="n">
-        <f aca="false">I35</f>
+        <f aca="false"> I35</f>
         <v>-319.554962</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <f aca="false">I36</f>
+        <f aca="false"> I36</f>
         <v>148.562927</v>
       </c>
       <c r="S34" s="0" t="n">
-        <f aca="false">F34</f>
+        <f aca="false"> F34</f>
         <v>0.052322</v>
       </c>
       <c r="T34" s="0" t="n">
-        <f aca="false">G35</f>
+        <f aca="false"> G35</f>
         <v>-0.867336</v>
       </c>
       <c r="U34" s="0" t="n">
-        <f aca="false">H36</f>
+        <f aca="false"> H36</f>
         <v>0.058712</v>
       </c>
       <c r="W34" s="0" t="n">
@@ -3727,39 +3727,39 @@
         <v>528.089844</v>
       </c>
       <c r="K39" s="0" t="n">
-        <f aca="false">COS(G40) - SIN(H40) + SIN(G41) + COS(H41)</f>
-        <v>0.736400444640665</v>
+        <f aca="false"> (COS(G40) - SIN(H40) + SIN(G41) + COS(H41)) / PI()</f>
+        <v>0.234403541719263</v>
       </c>
       <c r="L39" s="0" t="n">
-        <f aca="false">COS(F39) + SIN(H39) - SIN(F41) + COS(H41)</f>
-        <v>2.22261325086346</v>
+        <f aca="false"> (COS(F39) + SIN(H39) - SIN(F41) + COS(H41)) / PI()</f>
+        <v>0.707479770912935</v>
       </c>
       <c r="M39" s="0" t="n">
-        <f aca="false">COS(F39) - SIN(G39) + SIN(F40) + COS(G40)</f>
-        <v>0.743626679242652</v>
+        <f aca="false"> (COS(F39) - SIN(G39) + SIN(F40) + COS(G40)) / PI()</f>
+        <v>0.236703723632959</v>
       </c>
       <c r="O39" s="0" t="n">
-        <f aca="false">I39</f>
+        <f aca="false"> I39</f>
         <v>528.089844</v>
       </c>
       <c r="P39" s="0" t="n">
-        <f aca="false">I40</f>
+        <f aca="false"> I40</f>
         <v>-247.582123</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <f aca="false">I41</f>
+        <f aca="false"> I41</f>
         <v>-16.508154</v>
       </c>
       <c r="S39" s="0" t="n">
-        <f aca="false">F39</f>
+        <f aca="false"> F39</f>
         <v>0.284526</v>
       </c>
       <c r="T39" s="0" t="n">
-        <f aca="false">G40</f>
+        <f aca="false"> G40</f>
         <v>-0.326856</v>
       </c>
       <c r="U39" s="0" t="n">
-        <f aca="false">H41</f>
+        <f aca="false"> H41</f>
         <v>0.270491</v>
       </c>
       <c r="W39" s="0" t="n">
@@ -3828,39 +3828,39 @@
         <v>670.260315</v>
       </c>
       <c r="K44" s="0" t="n">
-        <f aca="false">COS(G45) - SIN(H45) + SIN(G46) + COS(H46)</f>
-        <v>0.595607561473949</v>
+        <f aca="false"> (COS(G45) - SIN(H45) + SIN(G46) + COS(H46)) / PI()</f>
+        <v>0.189587775102978</v>
       </c>
       <c r="L44" s="0" t="n">
-        <f aca="false">COS(F44) + SIN(H44) - SIN(F46) + COS(H46)</f>
-        <v>2.24379669291538</v>
+        <f aca="false"> (COS(F44) + SIN(H44) - SIN(F46) + COS(H46)) / PI()</f>
+        <v>0.714222669941462</v>
       </c>
       <c r="M44" s="0" t="n">
-        <f aca="false">COS(F44) - SIN(G44) + SIN(F45) + COS(G45)</f>
-        <v>0.598468306912388</v>
+        <f aca="false"> (COS(F44) - SIN(G44) + SIN(F45) + COS(G45)) / PI()</f>
+        <v>0.190498378657888</v>
       </c>
       <c r="O44" s="0" t="n">
-        <f aca="false">I44</f>
+        <f aca="false"> I44</f>
         <v>670.260315</v>
       </c>
       <c r="P44" s="0" t="n">
-        <f aca="false">I45</f>
+        <f aca="false"> I45</f>
         <v>-31.853258</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <f aca="false">I46</f>
+        <f aca="false"> I46</f>
         <v>-75.277428</v>
       </c>
       <c r="S44" s="0" t="n">
-        <f aca="false">F44</f>
+        <f aca="false"> F44</f>
         <v>0.566942</v>
       </c>
       <c r="T44" s="0" t="n">
-        <f aca="false">G45</f>
+        <f aca="false"> G45</f>
         <v>0.280196</v>
       </c>
       <c r="U44" s="0" t="n">
-        <f aca="false">H46</f>
+        <f aca="false"> H46</f>
         <v>0.563662</v>
       </c>
       <c r="W44" s="0" t="n">
@@ -3929,39 +3929,39 @@
         <v>712.157349</v>
       </c>
       <c r="K49" s="0" t="n">
-        <f aca="false">COS(G50) - SIN(H50) + SIN(G51) + COS(H51)</f>
-        <v>0.527389486394199</v>
+        <f aca="false"> (COS(G50) - SIN(H50) + SIN(G51) + COS(H51)) / PI()</f>
+        <v>0.167873287388665</v>
       </c>
       <c r="L49" s="0" t="n">
-        <f aca="false">COS(F49) + SIN(H49) - SIN(F51) + COS(H51)</f>
-        <v>1.91206826861809</v>
+        <f aca="false"> (COS(F49) + SIN(H49) - SIN(F51) + COS(H51)) / PI()</f>
+        <v>0.608630232959461</v>
       </c>
       <c r="M49" s="0" t="n">
-        <f aca="false">COS(F49) - SIN(G49) + SIN(F50) + COS(G50)</f>
-        <v>0.524288848418513</v>
+        <f aca="false"> (COS(F49) - SIN(G49) + SIN(F50) + COS(G50)) / PI()</f>
+        <v>0.166886323667527</v>
       </c>
       <c r="O49" s="0" t="n">
-        <f aca="false">I49</f>
+        <f aca="false"> I49</f>
         <v>712.157349</v>
       </c>
       <c r="P49" s="0" t="n">
-        <f aca="false">I50</f>
+        <f aca="false"> I50</f>
         <v>262.058594</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <f aca="false">I51</f>
+        <f aca="false"> I51</f>
         <v>53.81385</v>
       </c>
       <c r="S49" s="0" t="n">
-        <f aca="false">F49</f>
+        <f aca="false"> F49</f>
         <v>0.83347</v>
       </c>
       <c r="T49" s="0" t="n">
-        <f aca="false">G50</f>
+        <f aca="false"> G50</f>
         <v>0.765306</v>
       </c>
       <c r="U49" s="0" t="n">
-        <f aca="false">H51</f>
+        <f aca="false"> H51</f>
         <v>0.834547</v>
       </c>
       <c r="W49" s="0" t="n">
@@ -4030,39 +4030,39 @@
         <v>609.370178</v>
       </c>
       <c r="K54" s="0" t="n">
-        <f aca="false">COS(G55) - SIN(H55) + SIN(G56) + COS(H56)</f>
-        <v>0.861147179815976</v>
+        <f aca="false"> (COS(G55) - SIN(H55) + SIN(G56) + COS(H56)) / PI()</f>
+        <v>0.274111660794716</v>
       </c>
       <c r="L54" s="0" t="n">
-        <f aca="false">COS(F54) + SIN(H54) - SIN(F56) + COS(H56)</f>
-        <v>1.32906651457948</v>
+        <f aca="false"> (COS(F54) + SIN(H54) - SIN(F56) + COS(H56)) / PI()</f>
+        <v>0.423055010986481</v>
       </c>
       <c r="M54" s="0" t="n">
-        <f aca="false">COS(F54) - SIN(G54) + SIN(F55) + COS(G55)</f>
-        <v>1.05659345904314</v>
+        <f aca="false"> (COS(F54) - SIN(G54) + SIN(F55) + COS(G55)) / PI()</f>
+        <v>0.336324143690559</v>
       </c>
       <c r="O54" s="0" t="n">
-        <f aca="false">I54</f>
+        <f aca="false"> I54</f>
         <v>609.370178</v>
       </c>
       <c r="P54" s="0" t="n">
-        <f aca="false">I55</f>
+        <f aca="false"> I55</f>
         <v>437.562897</v>
       </c>
       <c r="Q54" s="0" t="n">
-        <f aca="false">I56</f>
+        <f aca="false"> I56</f>
         <v>363.022095</v>
       </c>
       <c r="S54" s="0" t="n">
-        <f aca="false">F54</f>
+        <f aca="false"> F54</f>
         <v>0.994011</v>
       </c>
       <c r="T54" s="0" t="n">
-        <f aca="false">G55</f>
+        <f aca="false"> G55</f>
         <v>0.99404</v>
       </c>
       <c r="U54" s="0" t="n">
-        <f aca="false">H56</f>
+        <f aca="false"> H56</f>
         <v>0.98727</v>
       </c>
       <c r="W54" s="0" t="n">
